--- a/Фитинг список.xlsx
+++ b/Фитинг список.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/assetzhanabayev/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/assetzhanabayev/Desktop/other/factory_dig/factory_digitalization/qc-teg-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AFCE10-6E37-FE4A-921D-0A748C03FB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F5FB8-47D4-D042-A414-E58D47062289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{AFBB5FC0-2617-45CA-B09D-41A28AF4C699}"/>
   </bookViews>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A116B0-8407-4D84-AF8E-8A68C4DDAC63}">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
